--- a/Examples/rankine/rankine0_model.xlsx
+++ b/Examples/rankine/rankine0_model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\rankine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\rankine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D137936E-4C05-4C43-BBD1-1374CE152907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF6DA3A-FE90-40DC-87D5-7DCC2EDA1C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1845" windowWidth="23550" windowHeight="13635" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="1" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>B4</t>
   </si>
   <si>
-    <t>B5</t>
-  </si>
-  <si>
     <t>WT</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>Boiler</t>
   </si>
   <si>
-    <t>B2-B5</t>
-  </si>
-  <si>
     <t>PRODUCTIVE</t>
   </si>
   <si>
@@ -167,9 +161,6 @@
     <t>Pump</t>
   </si>
   <si>
-    <t>B5-B4</t>
-  </si>
-  <si>
     <t>GEN</t>
   </si>
   <si>
@@ -185,9 +176,6 @@
     <t>Condenser</t>
   </si>
   <si>
-    <t>B3-B4</t>
-  </si>
-  <si>
     <t>DISSIPATIVE</t>
   </si>
   <si>
@@ -222,6 +210,18 @@
   </si>
   <si>
     <t>IRREVERSIBILITY</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B1-B2</t>
+  </si>
+  <si>
+    <t>B1-B4</t>
+  </si>
+  <si>
+    <t>B4-B3</t>
   </si>
 </sst>
 </file>
@@ -340,10 +340,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -361,6 +361,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59D74EB9-EE8A-4511-1014-CFB28405CB91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="619125" y="600075"/>
+          <a:ext cx="6038850" cy="4543425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -653,11 +719,14 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -679,48 +748,48 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -728,12 +797,12 @@
     </row>
     <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -748,7 +817,9 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -761,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -769,63 +840,63 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -833,7 +904,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +919,9 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -864,16 +937,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -881,16 +954,16 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -898,67 +971,67 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +1047,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,7 +1104,7 @@
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B3" s="10">
         <v>13362</v>
@@ -1054,7 +1127,7 @@
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="10">
         <v>1197</v>
@@ -1077,7 +1150,7 @@
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="10">
         <v>22.01</v>
@@ -1100,7 +1173,7 @@
     </row>
     <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="10">
         <v>121.5</v>
@@ -1123,7 +1196,7 @@
     </row>
     <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="10">
         <v>10435</v>
@@ -1146,7 +1219,7 @@
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="10">
         <v>104.4</v>
@@ -1169,7 +1242,7 @@
     </row>
     <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="10">
         <v>10000</v>
